--- a/in.xlsx
+++ b/in.xlsx
@@ -17,6 +17,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">&lt;- count from A2 to end of A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,12 +98,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -116,17 +128,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <f aca="true">COUNTA(INDIRECT("A2:A"&amp;ROWS(A:A)))</f>
+        <f aca="true">COUNTA(INDIRECT("A2:A" &amp; ROWS(A:A)))</f>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
